--- a/static/Usuarios.xlsx
+++ b/static/Usuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,20 +483,27 @@
           <t>poltrona</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>carro</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Romenil de Souza Barreto</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Carlos Antônio pessoa</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>105740691</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -506,21 +513,22 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eliane Alves Barreto</t>
+          <t>Irani  Rosa da Silva</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44764150</v>
+        <v>26269964</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -531,319 +539,1193 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carlos Antônio pessoa</t>
+          <t>Tania Regina da Silva</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>105740691</v>
+        <v>141655704</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Irani  Rosa da Silva</t>
+          <t>Fernanda Pereira de Oliveira</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26269964</v>
+        <v>790874342</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rosângela Bezerra Alves</t>
+          <t>Verônica conceição dos santos</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>494228040</v>
+        <v>2130438156</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tania Regina da Silva</t>
+          <t>Elidomar Luiz dos Santos</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>141655704</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>518390837</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71987495677</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Elizabeth dos santos Andrade</t>
+          <t>Edjane de Santana Teles</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2140985753</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>852476264</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71988779681</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fernanda Pereira de Oliveira</t>
+          <t>Iracema Carvalho Morais</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>790874342</v>
+        <v>393986683</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Miria ferreira chagas</t>
+          <t>Paulo Guilherme Moura</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>207814406</v>
+        <v>1559396485</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Verônica conceição dos santos</t>
+          <t>Gleissiane De Santana Moura</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2130438156</v>
+        <v>1603217002</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elidomar Luiz dos Santos</t>
+          <t>Tainá conceição de Araújo</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>518390837</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71987495677</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+        <v>215976227</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44902</v>
+        <v>44910</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Joselito Mendes Cruz</t>
+          <t>Jenice de Jesus Santos</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>329949093</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>815894414</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>994283236</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Giselly Carvalho Gomes Campos</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Vivian Pires Costa</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2027434038</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>997023541</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44910</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Edjane de Santana Teles</t>
+          <t>Giselly Carvalho Campos</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>852476264</v>
+        <v>1642123021</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71988779681</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>991172047</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Larissa Costa Dias</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1588081184</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71997251443</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rosangela de Souza Floro</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>663142679</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71985175957</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Maria dos Santos conceição</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>661458210</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Marineide Silva Soares</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1119960584</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Paulo Sérgio Copque</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>351172904</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Jucineia Santos Freitas</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>567651185</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ester Nataly Soares</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Raimundo de Jesus Santos</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>54171182</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Marizete Rodrigues de Jesus</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>386205612</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Márcio Gomes Ferreira</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>884227553</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tatiane Oliveira Ferreira</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>975213700</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Terezinha Guedes Cerqueira</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Renan Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Geraldo Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Joselice Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Marluce Conceição de Lima</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jessé Conceição Carvalho</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Filho de Maria, da Cetrel</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Miria Ferreira Chagas</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>207814406</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Caio de Oliveira Mártires</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2050943768</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Filho de Márcio</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hellen Vitória Ferreira</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Filha de Márcio</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Maria Santiago Pereira</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Romenil de Souza Barreto</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Viviane Pires dos Santos</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1137264659</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Bernadete santos conceição</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4356573</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Lara Bianca C Santos</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4356573</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Neta de Bernadete</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Maria de Lourdes Félix</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Eliane Alves Barreto</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>44764150</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>982395628</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rosângela Bezerra Alves</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>494228040</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>987464465</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Joselito Mendes Cruz</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>329949093</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>984333161</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ana Barbara Barros de Oliveira</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>945250134</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>986535046</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ananda Vitoria Barros</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>filha de Samuel</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Samuel Felipe Barros de Oliveira</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>filho de Samuel</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Samuel da Silva Oliveira</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>554358581</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>993567027</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Tiago Andrade</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Outra Congregação</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Elizabeth dos santos Andrade</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>01</t>
         </is>

--- a/static/Usuarios.xlsx
+++ b/static/Usuarios.xlsx
@@ -491,21 +491,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carlos Antônio pessoa</t>
+          <t>Joselito Mendes Cruz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>105740691</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>329949093</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>984333161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,395 +525,393 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Irani  Rosa da Silva</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>26269964</v>
-      </c>
+          <t>Miria Ferreira Chagas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tania Regina da Silva</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>141655704</v>
-      </c>
+          <t>Tainá Conceição de Araújo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fernanda Pereira de Oliveira</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>790874342</v>
-      </c>
+          <t>Larissa Costa Dias</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Verônica conceição dos santos</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2130438156</v>
-      </c>
+          <t>Giselly Carvalho Campos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Elidomar Luiz dos Santos</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>518390837</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71987495677</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Terezinha Guedes Cerqueira</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Edjane de Santana Teles</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>852476264</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71988779681</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Verônica Conceição dos Santos</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44904</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Iracema Carvalho Morais</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>393986683</v>
-      </c>
+          <t>Lara Bianca Santos</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>44906</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Paulo Guilherme Moura</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1559396485</v>
-      </c>
+          <t>Irani  Rosa da Silva</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>44906</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gleissiane De Santana Moura</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1603217002</v>
-      </c>
+          <t>Jessé Conceição Carvalho</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>44907</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tainá conceição de Araújo</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>215976227</v>
-      </c>
+          <t>Bernadete Santos Conceição</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44910</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>Jenice de Jesus Santos</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>815894414</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>994283236</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>44910</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vivian Pires Costa</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2027434038</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>997023541</t>
-        </is>
-      </c>
+          <t>Samuel Felipe Barros de Oliveira</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>44910</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Giselly Carvalho Campos</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1642123021</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>991172047</t>
-        </is>
-      </c>
+          <t>Geraldo Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Larissa Costa Dias</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1588081184</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>71997251443</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Márcio Gomes Ferreira</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44912</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rosangela de Souza Floro</t>
+          <t>Marineide Silva Soares</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>663142679</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>71985175957</t>
-        </is>
-      </c>
+        <v>1119960584</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -913,102 +919,124 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44912</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maria dos Santos conceição</t>
+          <t>Ester Nataly Soares</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>661458210</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+        <v>2170228802</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>986716822</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marineide Silva Soares</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1119960584</v>
-      </c>
+          <t>Carlos Antônio Pessoa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Paulo Sérgio Copque</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>351172904</v>
-      </c>
+          <t>Tatiane Oliveira Ferreira</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jucineia Santos Freitas</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>567651185</v>
-      </c>
+          <t>Renan Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ester Nataly Soares</t>
+          <t>Tania Regina da Silva</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1016,107 +1044,129 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Raimundo de Jesus Santos</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>54171182</v>
-      </c>
+          <t>Paulo Sérgio Copque</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Marizete Rodrigues de Jesus</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>386205612</v>
-      </c>
+          <t>Jucineia Santos Freitas</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Márcio Gomes Ferreira</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>884227553</v>
-      </c>
+          <t>Joselice Xavier Cerqueira</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tatiane Oliveira Ferreira</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>975213700</v>
-      </c>
+          <t>Caio de Oliveira Mártires</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Terezinha Guedes Cerqueira</t>
+          <t>Hellen Vitória Ferreira</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1124,19 +1174,25 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Renan Xavier Cerqueira</t>
+          <t>Gleissiane De Santana Moura</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1144,19 +1200,25 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Geraldo Xavier Cerqueira</t>
+          <t>Paulo Guilherme Moura</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1164,19 +1226,25 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Joselice Xavier Cerqueira</t>
+          <t>Iracema Carvalho Morais</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1184,19 +1252,25 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marluce Conceição de Lima</t>
+          <t>Rosangela de Souza Floro</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1204,237 +1278,259 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jessé Conceição Carvalho</t>
+          <t>Elidomar Luiz dos Santos</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Filho de Maria, da Cetrel</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Miria Ferreira Chagas</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>207814406</v>
-      </c>
+          <t>Edjane de Santana Teles</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Caio de Oliveira Mártires</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2050943768</v>
-      </c>
+          <t>Eliane Alves Barreto</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Filho de Márcio</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hellen Vitória Ferreira</t>
+          <t>Romenil de Souza Barreto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Filha de Márcio</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Maria Santiago Pereira</t>
+          <t>Ana Barbara Barros de Oliveira</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Romenil de Souza Barreto</t>
+          <t>Ananda Vitoria Barros</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>44904</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Viviane Pires dos Santos</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1137264659</v>
-      </c>
+          <t>Samuel da Silva Oliveira</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bernadete santos conceição</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>4356573</v>
-      </c>
+          <t>Mamedio de Jesus Santos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>49</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lara Bianca C Santos</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>4356573</v>
-      </c>
+          <t>Viviane Pires dos Santos</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Neta de Bernadete</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Maria de Lourdes Félix</t>
+          <t>Maria dos Santos Conceição</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1442,251 +1538,207 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eliane Alves Barreto</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>44764150</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>982395628</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Maria Santiago Pereira</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rosângela Bezerra Alves</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>494228040</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>987464465</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Alicia Pires de Araújo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>44902</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Joselito Mendes Cruz</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>329949093</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>984333161</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Vivian Pires Costa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>26</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ana Barbara Barros de Oliveira</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>945250134</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>986535046</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Tiago Santos Andrade</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ananda Vitoria Barros</t>
+          <t>Elizabeth dos Santos Andrade</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>filha de Samuel</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Samuel Felipe Barros de Oliveira</t>
+          <t>Fernanda Pereira de Oliveira</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>filho de Samuel</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>44912</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Samuel da Silva Oliveira</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>554358581</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>993567027</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+          <t>Marluce Conceição de Lima</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tiago Andrade</t>
+          <t>Rosângela Bezerra Alves</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1696,23 +1748,23 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Outra Congregação</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Elizabeth dos santos Andrade</t>
+          <t>Maria de Lourdes Félix</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1722,7 +1774,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">

--- a/static/Usuarios.xlsx
+++ b/static/Usuarios.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>identidade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>telefone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>observações</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>adquiriu</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quitado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>poltrona</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>carro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Janis Joplin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/static/Usuarios.xlsx
+++ b/static/Usuarios.xlsx
@@ -482,44 +482,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Janis Joplin</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>Tiago Andrade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
